--- a/data/hotels_by_city/Dallas/Dallas_shard_230.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_230.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="413">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Robert G</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>This Hotel has become my home away from home when I am on business in the Fort Worth area.  I have stayed in several of the rooms at this hotel and all have been clean, cool and comfortable.  Trish and her staff are very professional and always great me with a smile.  So far they have been able to accommodate room requests, such as first floor or rooms toward the end of the building for easier access.  Each room has a fridg, stove with oven, microwave and sink.  Cable TV with showtime and internet access is also provided.  Give them a try when in the Fort Worth area.More</t>
   </si>
   <si>
+    <t>leah j</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r560767027-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Very old property.  Have to ask for dishes/utensils at front desk.  Elevator smelled of urine.  Very limited amenities. No food on site.   I chose this hotel because it was near my customer. Would not stay there again. Front desk people are very friendly.More</t>
   </si>
   <si>
+    <t>715mirandac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r556874119-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -240,6 +249,9 @@
     <t>Was checked into the room under the wrong name, even when give my personal information. Was told upon arrival, to call the front desk if something is not satisfactory...yet had no phone in the room. Hair dryer nearly caught on fire. Reported along with the missing phone, nothing replaced during my 3 night stay. Overall very loud at night.  Someone's car was vandalized the day before I checked out. (3 slashed tires, busted windshield, sugar in tank) When I saw the car and went to the front desk staff, she stated she watch the person do it, but didn't call the cops. Concerning to know that staff will witness a crime but not report it to the local authority.More</t>
   </si>
   <si>
+    <t>Bambi G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r553026023-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>The room was clean, nice employees, would love to have hot breakfaast but the rest i enjoyed. my experience was good and yes i would visit again i love that the rooms have a full kitchen and a chair and bedMore</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r552830573-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>This has been a home away from home for over 4 months while on a work assignment. The staff has been very accommodating and friendly. This hotel is conveniently located to restaurants, grocery stores, gas stations, movie theaters and shopping. It has a full kitchen with full size appliances and cabinets. Welcome home...More</t>
   </si>
   <si>
+    <t>marcarelisa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r552133529-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>We stayed here for about a two weeks.  The staff made it possible for our family to stay in a super sized 1 bedroom, with sofa bed, and full kitchen room on the 3rd floor.  We were able to save some money because one staff member mentioned we didn't have to have our room cleaned by housekeeping everyday.  That would save $10 a night.  We appreciated that tip.  The room is a bit drab with the dark colors, but it was really big to have the kids move around.  We didn't like the 3rd floor because, well, we have kids that like to jump around and play.  We had to constantly keep telling them that there might be guest on the bottom floor that could get annoyed.  We asked for a 1st floor room at check in, but were told that none were available on the 1st floor.  It is close to a major freeway so you can hear traffic noise.  The parking lot is not cleaned up daily.  You will find trash, dog feces, and cigarette butts right outside the entrance.  We saw the same trash and dog feces on the ground for days.  The same non-cleanliness can be found on the lobby area floor and hotel floors.  There is dirt in the corners, spots on the floors, and the hallways smell.  The elevator is also full of spots on the floor, dirt in the corners, and with dirt...We stayed here for about a two weeks.  The staff made it possible for our family to stay in a super sized 1 bedroom, with sofa bed, and full kitchen room on the 3rd floor.  We were able to save some money because one staff member mentioned we didn't have to have our room cleaned by housekeeping everyday.  That would save $10 a night.  We appreciated that tip.  The room is a bit drab with the dark colors, but it was really big to have the kids move around.  We didn't like the 3rd floor because, well, we have kids that like to jump around and play.  We had to constantly keep telling them that there might be guest on the bottom floor that could get annoyed.  We asked for a 1st floor room at check in, but were told that none were available on the 1st floor.  It is close to a major freeway so you can hear traffic noise.  The parking lot is not cleaned up daily.  You will find trash, dog feces, and cigarette butts right outside the entrance.  We saw the same trash and dog feces on the ground for days.  The same non-cleanliness can be found on the lobby area floor and hotel floors.  There is dirt in the corners, spots on the floors, and the hallways smell.  The elevator is also full of spots on the floor, dirt in the corners, and with dirt on the walls.  The towels are suppose to be white, but you will find huge yellow stains on the clean ones.  The free Wi-Fi is great during the day, but really slow in the evenings.  It's easy access from the freeway, but to get back on the freeway, you have to travel at least 5-7 minutes on local streets to find the next entrance.  Overall the cleanliness of the place was lacking.  All that stuff we step on in the parking lot and floors is brought back into the rooms.  When you have little kids that like to play around on the floors, it just makes it tough to choose this hotel again for their sake.More</t>
   </si>
   <si>
+    <t>ansonh10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r547859438-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -345,6 +366,9 @@
     <t>Bugs in the kitchen and bathroom. No small face towels were available. Went to the service desk and all the small face towels were being washed. I wouldn't recommend this hotel to  friends or any family member.More</t>
   </si>
   <si>
+    <t>nunya b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r537283206-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -375,6 +399,9 @@
     <t>Love the accommodations and staff is wonderful! I will definitely stay here again and I highly recommend this location to anyone!  Whole room is nice and clean. Very private, cozy and quiet.  Great workout room, as well!More</t>
   </si>
   <si>
+    <t>Kara H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r534202459-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -399,6 +426,9 @@
     <t>My family and I have finally relocated to the Fort Worth area thanks to the warm comfort of Extended Stay of America we're able to have a peace of mind after a long day/night of work. Not to mention, I'm able to take my time to research locations and schools programs before purchasing our next home. The staff is always polite even at 3am. Downside is other guess leaving side doors open with a rock to have access to the build. Office staff is aware of issue and try their best to monitor the situation. however, I am just afraid a rotten would come in to the building. More</t>
   </si>
   <si>
+    <t>mdqt314</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r533254086-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -450,6 +480,9 @@
     <t>I travel to the Fort Worth Fossil Creek area every week.  And every week I come back to Extended Stay America Fossil Creek.  Manager Trish and her staff always have my room ready.  It is like my personal apartment for the week.  I have stayed in several rooms and they all have  microwave, fridge, stove, sink and a cold air conditioner.  The hotel is in a good location close to numerous restaurants and shopping centers.  I have stayed at this particular hotel on over 20 separate occasions and have always been satisfied with service and cleanliness.More</t>
   </si>
   <si>
+    <t>648gracieb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r508494409-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -477,6 +510,9 @@
     <t>Rooms where excellent and well kept, when going in your room great space and comfortable beds. Front desk staff were friendly and welcoming. Will definitely return and recommend to family and friends.More</t>
   </si>
   <si>
+    <t>melissao879</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r507979332-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -501,6 +537,9 @@
     <t>We loved this hotel!  Our only complaint was that the stairwell smelled like garbage because of the trash cans in there mixed with the heat.  When the door was opened, it carried on through the hall.  However, the rooms were clean and the staff was AWESOME and very friendly.  They accommodated us and all of our requests without issue. It was a great experience overall!  Don't let the low price fool you!More</t>
   </si>
   <si>
+    <t>ryanaU5328ZY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r504171500-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -525,6 +564,9 @@
     <t>Check with Alyria was very good experience.  The room was very nice for the price. We got upgraded to a suite. The black out curtains helped keep the sun out. The pool is simple, rectangular and not large. More</t>
   </si>
   <si>
+    <t>shana466</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r503589993-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -552,6 +594,9 @@
     <t>We had a great experience at this hotel.  We had 2 rooms for about a month, including a handicapped room from my 90 year old grandmother.  It was very spacious with plenty of room for her wheelchair in room and bathroom, also had walk-in shower.  Hotel staff was wonderful ** shout out to Lucy and Ethel!  Truly enjoyed our stay and would definitely recommend this hotel.More</t>
   </si>
   <si>
+    <t>Lannnnaaaaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r497163547-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -579,6 +624,9 @@
     <t>The staff was very accommodating and helpful. The hotel itself needs some updates and repairs. The pet fee is a bit high also, but overall I was satisfied with our stay. We really enjoyed the kitchenette. More</t>
   </si>
   <si>
+    <t>hilliardc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r497055528-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -597,6 +645,9 @@
     <t>Nice clean and good service. Beware of all the road construction going on around it. Other than that it was a nice place to stay. there is a lot of road construction going on at the north loop 820 and I-35 junction, but the hotel cannot do anything about that.More</t>
   </si>
   <si>
+    <t>G5124EHbradl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r491257957-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -621,6 +672,9 @@
     <t>My stay was short but in the future, when I have longer stays, I would select this hotel.  It has everything available for you stay away from home, and it's in a very convenient location.  My main reason for selecting this hotel the value for what you need. I don't need all the extras that other hotels offer, because you're directly or indirectly paying for those.  More</t>
   </si>
   <si>
+    <t>Briefcaseman2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r482938311-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -648,6 +702,9 @@
     <t>I have appreciated my stay at the Extended Stay America – Fossil Creek. The staff is friendly and especially so during weekly cleaning of room. The wife &amp; kids are taken over the amount of space in a double room. (myself included!!!!!). The staff is supportive, accommodating, professional and friendly. Breakfast is set out every morning in a timely manner. The free WI-Fi is perfect for multiple devices. I recommend this hotel for persons especially that need a pleasant place for a prolonged period. Again, the rooms are spacious and clean. Trish and her staff is some of the nicest people I have met.More</t>
   </si>
   <si>
+    <t>cgraphman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r482740035-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -669,6 +726,9 @@
     <t>I have stayed at this Hotel for well over 20 nights usually at least 4 nights straight.  They staff is always attentive to my needs and always a clean room waiting for me.  I have stayed on all floors but I prefer the first floor.  The Manager does her best to hook me up with that request.  The only con would be internet service.  I have to sign on every 24 hour period.  Otherwise no problems.  I will continue to use this Hotel for my business travels.More</t>
   </si>
   <si>
+    <t>taneshapete</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r480294689-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -693,6 +753,9 @@
     <t>We love it here they took really good care of us!! Thank you amina and alyria.. Sorry if i spelled your names wrong.. We will be coming back soon. Hope you too ladies will be there with their greeting smiles.. More</t>
   </si>
   <si>
+    <t>Jorge C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r478319920-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -717,6 +780,9 @@
     <t>My wife and I enjoyed a one night stay kind of last minute. Our first time at an Extended Stay, and it surpassed our expectations. You could tell that the rooms were well kept. The grab and go breakfast hit the spot!More</t>
   </si>
   <si>
+    <t>ree l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r477597656-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -741,6 +807,9 @@
     <t>This was the best extended stay we've ever visited. It is clean, spacious and cost efficient. The check in process was not lengthy and was also a wonderful experience. They have multiple upgrades. No carpet, which was a plus! Myron has a beautiful smile and was friendly, helpful and informative. His hospitality exceeded my expectations! This facility has all the essentials to meet anyone's needs and perks too. I'd recommend staying here and I would stay here again. Thank you for making my stay comfortable. They even allow pets!!More</t>
   </si>
   <si>
+    <t>Terrell B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r476753645-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -792,6 +861,9 @@
     <t>Trish, Alyria and Amira at the desk are outstanding.  Ihave stayed at this Hotel 3 times in the last month and was always greeted with a smile and a great attitude.  The Hotel is clean all rooms have refrigerator, stove, microwave, couch and desk.  So far internet has been fast enough for business.  I will keep booking this Hotel.More</t>
   </si>
   <si>
+    <t>Wanda A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r472514112-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -816,6 +888,9 @@
     <t>I will be staying here 2 weeks. So far the staff has been amazing, over-the-top!! I have never felt more at home than here. The staff makes you feel about like family here. This was my first time to stay her, but I will be staying here much more. More</t>
   </si>
   <si>
+    <t>samuel1710</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r471971145-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -837,6 +912,9 @@
     <t>Great customer service and very clean atmosphere will recommend my friends to come here at the time. The awesome hospitality by Ms. Amina was stunting keep up the good work. Close to food places and shopping.More</t>
   </si>
   <si>
+    <t>Tina A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r468083153-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -861,6 +939,9 @@
     <t>Amina, Alyria,Trish,Yeni,Myron,Jamal and Ray, are a excellent staff they made sure that our stay was awesome and comfortable and we would recommend that everyone should choose Extented Stay America. Our family love you all and god bless every one of you.More</t>
   </si>
   <si>
+    <t>sheilad62016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r456873576-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -888,6 +969,9 @@
     <t>We had the pleasure of staying at the Fossil Creek location. I must admit our room was extremely clean, and the beds were comfortable. If there is anything you need anytime of the day or night they provide with extreme courteousness. I have to thank Walter Ray Turner for outstanding service and going above and beyond to take care of our needs. Again this is an awesome place to stay. We will utilize them in the future.More</t>
   </si>
   <si>
+    <t>ontime398</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r448919211-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -909,6 +993,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>PhDreamer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r446252290-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1020,9 @@
     <t>I had the opportunity of staying here for three weeks in December 2016. The renovated rooms and exceptional staff made for a really enjoyable and relaxed stay.I stayed in both the standard (okay) and deluxe (excellent) rooms. Both rooms have a full kitchen, equipped with a full sized refrigerator, microwave, stove and cookware etc. The rooms were very clean and modern, with good lighting and amenities. The deluxe room in particular, had the feeling of a nice studio apartment.Free wifi is provided and internet speeds were reasonable, at about 1mb. The deluxe room also was equipped with a large desk, comfortable sleeper sofa, 32" TV, dresser and large bathroom. The queen bed was particularly comfortable.Overall, these are things that should be expected from this class of hotel. What was unexpected however, was the level of service provided by the staff under the direction of the hotel manager Trish. All of these folks went "above and beyond" to make sure I was satisfied. They even worked out the best rate, without me asking!Overall, I would rate this hotel as the best value in northern Fort Worth.More</t>
   </si>
   <si>
+    <t>sonjia c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r443210590-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -978,6 +1068,9 @@
     <t>The room was very spacious. The management and staff are very helpful (assist guest in any way possible) and friendly. Furthermore, having a kitchen to prepare meals is very convenient and cost efficient. Guests can relax and rejuvenate in the newly remodeled contemporary guest rooms. Extended Stay America - Fossil Creek has comfortable beds and sweet sleeper sofa that is custom-designed for a great night's sleep and excellent for sitting. Free high speed Internet access is available.More</t>
   </si>
   <si>
+    <t>saseechic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r412042868-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1095,9 @@
     <t>The stay was perfect, area quiet, close to things, employees nice, rate was good for all you got, we got a better deal going thru a third party ie:hotel to go, than when I called extended stay. When I called the price was $10 more a night and they said that none of the stays had a pool, that was wrong,this one had a pool. Will definitely come backMore</t>
   </si>
   <si>
+    <t>vagabond023</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r371797238-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1029,6 +1125,9 @@
     <t>This hotel is in a great location, very convenient to everything and very well managed. The management and staff are very friendly and always willing to help, especially Yenni, she's very pleasant and very professional.The rooms are very well kept and spacious, and the full kitchen is great for making meals. It's a true home away from home place. I enjoy the grab and go breakfast, it has nice variety and fresh coffee.More</t>
   </si>
   <si>
+    <t>StarTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r363865324-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1045,6 +1144,9 @@
   </si>
   <si>
     <t>April 2016</t>
+  </si>
+  <si>
+    <t>Sandra m</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r355913296-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1067,6 +1169,9 @@
 Upon check-in I was initially given room 201, when I arrived at the room the door was propped open and the and the room was dirty. The bedding was askew and the floors were dirty. Additionally the entire hallway I walked through to get to the room reeked of cigarette smoke. The stairwells seem to be a place to store boxes  and dirty throughout. I walked down the dirty stairwell to return to the front desk and asked for a different room. They were very apologetic, changed my room and put me on the third floor as I had requested a different floor so I could avoid cigarette smoke. The manager also promised to investigate the smoking. Initially the new room, although not spotless was clean enough and the hallway smelled less of smoke than the 2nd floor. I left for a few hours and when...I stayed at this hotel for one night from 3/15 to 3/16 2016. I chose it because it was affordable, pet friendly, and a newly built non-smoking hotel according to the extended stay website. Given the price per night I was not expecting a 5 star or even upper 3 star experience. I was however,expecting a clean room, clean common areas and a non-smoking hotel. This hotel is also clearly not new, or if it is they used old linens, for a new hotel the towels are shabby and bed linens are as well. Upon check-in I was initially given room 201, when I arrived at the room the door was propped open and the and the room was dirty. The bedding was askew and the floors were dirty. Additionally the entire hallway I walked through to get to the room reeked of cigarette smoke. The stairwells seem to be a place to store boxes  and dirty throughout. I walked down the dirty stairwell to return to the front desk and asked for a different room. They were very apologetic, changed my room and put me on the third floor as I had requested a different floor so I could avoid cigarette smoke. The manager also promised to investigate the smoking. Initially the new room, although not spotless was clean enough and the hallway smelled less of smoke than the 2nd floor. I left for a few hours and when I returned I felt like I was walking through an entire smoking section or a smoke filled night club to get to my room. The entire hallway smelled of smoke and it also slowly started to smell in my room. I am very allergic to smoke and this is why I chose this hotel. This hotel is clearly not non-smoking or the policy is clearly not strictly or even somewhat enforced. If you are going to advertise hotel as non-smoking you need to enforce it because people will trust that promise and you could be making them ill. Although I paid a lot less for this hotel then I may have for others I would have preferred to pay more and not have had an allergy attack. This hotel stinks literally!More</t>
   </si>
   <si>
+    <t>ChuckL70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r335446245-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1094,6 +1199,9 @@
     <t>Rented a room through Priceline.Com for a concert at Billy Bob's Christmas night and this hotel worked well. It was about 7-8 miles away but pretty easy to get to in spite of the road construction. Our room was nice, clean and quiet; all you can ask for.More</t>
   </si>
   <si>
+    <t>hrw1953</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r329164328-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1112,6 +1220,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Lighthousetravelok</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r327035870-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1125,6 +1236,9 @@
   </si>
   <si>
     <t>Here is a great clean hotel that offers kitchens in their rooms. Where you can make a great home cooked meal &amp; save money rather going out &amp; spend a lot of money at restaurants. I felt like home while staying in the room, it felt like I was in a small apartment rather than a hotel room. Loved it.</t>
+  </si>
+  <si>
+    <t>momna_8</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r309425471-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1647,43 +1761,47 @@
       <c r="A2" t="n">
         <v>37184</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>634</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1701,56 +1819,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37184</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136217</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -1772,56 +1894,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37184</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136218</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1843,56 +1969,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37184</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136219</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1910,56 +2040,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37184</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1971,56 +2105,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37184</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136220</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2036,56 +2174,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37184</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -2107,56 +2249,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37184</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136222</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2168,56 +2314,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37184</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>9050</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>122</v>
       </c>
-      <c r="L10" t="s">
-        <v>123</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>114</v>
-      </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2229,56 +2379,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37184</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136223</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2290,56 +2444,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37184</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>634</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2357,56 +2515,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37184</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>136224</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="O13" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2428,56 +2590,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37184</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2499,56 +2665,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37184</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136226</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="O15" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2570,56 +2740,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37184</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136227</v>
+      </c>
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2635,56 +2809,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37184</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136228</v>
+      </c>
+      <c r="C17" t="s">
+        <v>192</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O17" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2706,56 +2884,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="Y17" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37184</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136229</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -2777,56 +2959,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="X18" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="Y18" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37184</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136230</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2848,56 +3034,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37184</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136231</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="K20" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="O20" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2913,56 +3103,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37184</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136232</v>
+      </c>
+      <c r="C21" t="s">
+        <v>228</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -2980,56 +3174,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="X21" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="Y21" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37184</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136233</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="J22" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="K22" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="O22" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3041,47 +3239,51 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="X22" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37184</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>38101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>245</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
@@ -3098,56 +3300,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="X23" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="Y23" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37184</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>136234</v>
+      </c>
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
+        <v>256</v>
+      </c>
+      <c r="J24" t="s">
+        <v>257</v>
+      </c>
+      <c r="K24" t="s">
+        <v>258</v>
+      </c>
+      <c r="L24" t="s">
+        <v>259</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>234</v>
       </c>
-      <c r="J24" t="s">
-        <v>235</v>
-      </c>
-      <c r="K24" t="s">
-        <v>236</v>
-      </c>
-      <c r="L24" t="s">
-        <v>237</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>215</v>
-      </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3159,56 +3365,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="X24" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="Y24" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37184</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>16742</v>
+      </c>
+      <c r="C25" t="s">
+        <v>263</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="J25" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="L25" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="O25" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -3226,56 +3436,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="X25" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="Y25" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37184</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>634</v>
+      </c>
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="J26" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="K26" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3293,56 +3507,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="X26" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="Y26" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37184</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>6469</v>
+      </c>
+      <c r="C27" t="s">
+        <v>281</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="J27" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="K27" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3354,56 +3572,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="X27" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="Y27" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37184</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>136235</v>
+      </c>
+      <c r="C28" t="s">
+        <v>290</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3415,56 +3637,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="X28" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="Y28" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37184</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>34012</v>
+      </c>
+      <c r="C29" t="s">
+        <v>298</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="J29" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="K29" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="L29" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="O29" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3476,56 +3702,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="X29" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="Y29" t="s">
-        <v>280</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37184</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136236</v>
+      </c>
+      <c r="C30" t="s">
+        <v>307</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="J30" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="K30" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="O30" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3537,56 +3767,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="X30" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="Y30" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37184</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136237</v>
+      </c>
+      <c r="C31" t="s">
+        <v>317</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="J31" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="K31" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="L31" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="O31" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3606,50 +3840,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37184</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>136238</v>
+      </c>
+      <c r="C32" t="s">
+        <v>325</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="J32" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="K32" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="L32" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="O32" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3667,56 +3905,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="X32" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="Y32" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37184</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136239</v>
+      </c>
+      <c r="C33" t="s">
+        <v>334</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="J33" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="K33" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="L33" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -3732,56 +3974,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="X33" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
       <c r="Y33" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37184</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136230</v>
+      </c>
+      <c r="C34" t="s">
+        <v>218</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="J34" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="K34" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="L34" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -3799,56 +4045,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="X34" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="Y34" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37184</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136240</v>
+      </c>
+      <c r="C35" t="s">
+        <v>350</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>320</v>
+        <v>351</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>321</v>
+        <v>352</v>
       </c>
       <c r="J35" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="K35" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="L35" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="O35" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3860,56 +4110,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>325</v>
+        <v>356</v>
       </c>
       <c r="X35" t="s">
-        <v>326</v>
+        <v>357</v>
       </c>
       <c r="Y35" t="s">
-        <v>327</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37184</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>136241</v>
+      </c>
+      <c r="C36" t="s">
+        <v>359</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="J36" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="K36" t="s">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="L36" t="s">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3925,56 +4179,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="X36" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="Y36" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37184</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>136242</v>
+      </c>
+      <c r="C37" t="s">
+        <v>369</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="J37" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="K37" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="L37" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -3992,50 +4250,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37184</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>136243</v>
+      </c>
+      <c r="C38" t="s">
+        <v>376</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="J38" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="K38" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="L38" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="O38" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4053,50 +4315,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37184</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>136244</v>
+      </c>
+      <c r="C39" t="s">
+        <v>383</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="J39" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="K39" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="L39" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="O39" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4114,56 +4380,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="X39" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="Y39" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37184</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>48414</v>
+      </c>
+      <c r="C40" t="s">
+        <v>393</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="J40" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="K40" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="L40" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="O40" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4181,50 +4451,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37184</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>136245</v>
+      </c>
+      <c r="C41" t="s">
+        <v>400</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="J41" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="K41" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="L41" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="O41" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4244,50 +4518,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37184</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>136246</v>
+      </c>
+      <c r="C42" t="s">
+        <v>406</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="J42" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="K42" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="L42" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>374</v>
+        <v>412</v>
       </c>
       <c r="O42" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4301,7 +4579,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_230.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_230.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="383">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,42 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Robert G</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r585089910-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
+  </si>
+  <si>
+    <t>55857</t>
+  </si>
+  <si>
+    <t>109119</t>
+  </si>
+  <si>
+    <t>585089910</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Unexpected long term resident</t>
+  </si>
+  <si>
+    <t>I would just like to take a minute to praise the people and environment at the extended stay america. My family and we have been living at this hotel since December of 2017. this was an unexpected development with a long back story, but obviously not the situation that we had planned on being in. That being said the staff here has made this a very positive experience and surprisingly familial in their willingness to be understanding and personal in working with a family that is currently going through an "interesting" time in their lives. We just want to use this platform to say thank you and God bless to the staff here at extended stay. The managerial staff here, and one Trish Martinez in particular, has gone so far above and beyond our expectations and quite honestly ridiculously giving to help make my family and myself comfortable and secure in our stay and in what has become our home. Thank you...a thousand times thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - Fossil Creek, responded to this reviewResponded June 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2018</t>
+  </si>
+  <si>
+    <t>I would just like to take a minute to praise the people and environment at the extended stay america. My family and we have been living at this hotel since December of 2017. this was an unexpected development with a long back story, but obviously not the situation that we had planned on being in. That being said the staff here has made this a very positive experience and surprisingly familial in their willingness to be understanding and personal in working with a family that is currently going through an "interesting" time in their lives. We just want to use this platform to say thank you and God bless to the staff here at extended stay. The managerial staff here, and one Trish Martinez in particular, has gone so far above and beyond our expectations and quite honestly ridiculously giving to help make my family and myself comfortable and secure in our stay and in what has become our home. Thank you...a thousand times thank you!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r580623414-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
-    <t>55857</t>
-  </si>
-  <si>
-    <t>109119</t>
-  </si>
-  <si>
     <t>580623414</t>
   </si>
   <si>
@@ -180,18 +201,15 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Fort Worth - Fossil Creek, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
+    <t>00esa, Manager at Extended Stay America - Fort Worth - Fossil Creek, responded to this reviewResponded May 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2018</t>
   </si>
   <si>
     <t>This Hotel has become my home away from home when I am on business in the Fort Worth area.  I have stayed in several of the rooms at this hotel and all have been clean, cool and comfortable.  Trish and her staff are very professional and always great me with a smile.  So far they have been able to accommodate room requests, such as first floor or rooms toward the end of the building for easier access.  Each room has a fridg, stove with oven, microwave and sink.  Cable TV with showtime and internet access is also provided.  Give them a try when in the Fort Worth area.More</t>
   </si>
   <si>
-    <t>leah j</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r560767027-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -219,9 +237,6 @@
     <t>Very old property.  Have to ask for dishes/utensils at front desk.  Elevator smelled of urine.  Very limited amenities. No food on site.   I chose this hotel because it was near my customer. Would not stay there again. Front desk people are very friendly.More</t>
   </si>
   <si>
-    <t>715mirandac</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r556874119-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -249,9 +264,6 @@
     <t>Was checked into the room under the wrong name, even when give my personal information. Was told upon arrival, to call the front desk if something is not satisfactory...yet had no phone in the room. Hair dryer nearly caught on fire. Reported along with the missing phone, nothing replaced during my 3 night stay. Overall very loud at night.  Someone's car was vandalized the day before I checked out. (3 slashed tires, busted windshield, sugar in tank) When I saw the car and went to the front desk staff, she stated she watch the person do it, but didn't call the cops. Concerning to know that staff will witness a crime but not report it to the local authority.More</t>
   </si>
   <si>
-    <t>Bambi G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r553026023-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -279,9 +291,6 @@
     <t>The room was clean, nice employees, would love to have hot breakfaast but the rest i enjoyed. my experience was good and yes i would visit again i love that the rooms have a full kitchen and a chair and bedMore</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r552830573-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -306,9 +315,6 @@
     <t>This has been a home away from home for over 4 months while on a work assignment. The staff has been very accommodating and friendly. This hotel is conveniently located to restaurants, grocery stores, gas stations, movie theaters and shopping. It has a full kitchen with full size appliances and cabinets. Welcome home...More</t>
   </si>
   <si>
-    <t>marcarelisa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r552133529-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -336,9 +342,6 @@
     <t>We stayed here for about a two weeks.  The staff made it possible for our family to stay in a super sized 1 bedroom, with sofa bed, and full kitchen room on the 3rd floor.  We were able to save some money because one staff member mentioned we didn't have to have our room cleaned by housekeeping everyday.  That would save $10 a night.  We appreciated that tip.  The room is a bit drab with the dark colors, but it was really big to have the kids move around.  We didn't like the 3rd floor because, well, we have kids that like to jump around and play.  We had to constantly keep telling them that there might be guest on the bottom floor that could get annoyed.  We asked for a 1st floor room at check in, but were told that none were available on the 1st floor.  It is close to a major freeway so you can hear traffic noise.  The parking lot is not cleaned up daily.  You will find trash, dog feces, and cigarette butts right outside the entrance.  We saw the same trash and dog feces on the ground for days.  The same non-cleanliness can be found on the lobby area floor and hotel floors.  There is dirt in the corners, spots on the floors, and the hallways smell.  The elevator is also full of spots on the floor, dirt in the corners, and with dirt...We stayed here for about a two weeks.  The staff made it possible for our family to stay in a super sized 1 bedroom, with sofa bed, and full kitchen room on the 3rd floor.  We were able to save some money because one staff member mentioned we didn't have to have our room cleaned by housekeeping everyday.  That would save $10 a night.  We appreciated that tip.  The room is a bit drab with the dark colors, but it was really big to have the kids move around.  We didn't like the 3rd floor because, well, we have kids that like to jump around and play.  We had to constantly keep telling them that there might be guest on the bottom floor that could get annoyed.  We asked for a 1st floor room at check in, but were told that none were available on the 1st floor.  It is close to a major freeway so you can hear traffic noise.  The parking lot is not cleaned up daily.  You will find trash, dog feces, and cigarette butts right outside the entrance.  We saw the same trash and dog feces on the ground for days.  The same non-cleanliness can be found on the lobby area floor and hotel floors.  There is dirt in the corners, spots on the floors, and the hallways smell.  The elevator is also full of spots on the floor, dirt in the corners, and with dirt on the walls.  The towels are suppose to be white, but you will find huge yellow stains on the clean ones.  The free Wi-Fi is great during the day, but really slow in the evenings.  It's easy access from the freeway, but to get back on the freeway, you have to travel at least 5-7 minutes on local streets to find the next entrance.  Overall the cleanliness of the place was lacking.  All that stuff we step on in the parking lot and floors is brought back into the rooms.  When you have little kids that like to play around on the floors, it just makes it tough to choose this hotel again for their sake.More</t>
   </si>
   <si>
-    <t>ansonh10</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r547859438-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -366,9 +369,6 @@
     <t>Bugs in the kitchen and bathroom. No small face towels were available. Went to the service desk and all the small face towels were being washed. I wouldn't recommend this hotel to  friends or any family member.More</t>
   </si>
   <si>
-    <t>nunya b</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r537283206-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -399,9 +399,6 @@
     <t>Love the accommodations and staff is wonderful! I will definitely stay here again and I highly recommend this location to anyone!  Whole room is nice and clean. Very private, cozy and quiet.  Great workout room, as well!More</t>
   </si>
   <si>
-    <t>Kara H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r534202459-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -426,9 +423,6 @@
     <t>My family and I have finally relocated to the Fort Worth area thanks to the warm comfort of Extended Stay of America we're able to have a peace of mind after a long day/night of work. Not to mention, I'm able to take my time to research locations and schools programs before purchasing our next home. The staff is always polite even at 3am. Downside is other guess leaving side doors open with a rock to have access to the build. Office staff is aware of issue and try their best to monitor the situation. however, I am just afraid a rotten would come in to the building. More</t>
   </si>
   <si>
-    <t>mdqt314</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r533254086-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -480,9 +474,6 @@
     <t>I travel to the Fort Worth Fossil Creek area every week.  And every week I come back to Extended Stay America Fossil Creek.  Manager Trish and her staff always have my room ready.  It is like my personal apartment for the week.  I have stayed in several rooms and they all have  microwave, fridge, stove, sink and a cold air conditioner.  The hotel is in a good location close to numerous restaurants and shopping centers.  I have stayed at this particular hotel on over 20 separate occasions and have always been satisfied with service and cleanliness.More</t>
   </si>
   <si>
-    <t>648gracieb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r508494409-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -510,9 +501,6 @@
     <t>Rooms where excellent and well kept, when going in your room great space and comfortable beds. Front desk staff were friendly and welcoming. Will definitely return and recommend to family and friends.More</t>
   </si>
   <si>
-    <t>melissao879</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r507979332-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -537,9 +525,6 @@
     <t>We loved this hotel!  Our only complaint was that the stairwell smelled like garbage because of the trash cans in there mixed with the heat.  When the door was opened, it carried on through the hall.  However, the rooms were clean and the staff was AWESOME and very friendly.  They accommodated us and all of our requests without issue. It was a great experience overall!  Don't let the low price fool you!More</t>
   </si>
   <si>
-    <t>ryanaU5328ZY</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r504171500-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -564,9 +549,6 @@
     <t>Check with Alyria was very good experience.  The room was very nice for the price. We got upgraded to a suite. The black out curtains helped keep the sun out. The pool is simple, rectangular and not large. More</t>
   </si>
   <si>
-    <t>shana466</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r503589993-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -594,9 +576,6 @@
     <t>We had a great experience at this hotel.  We had 2 rooms for about a month, including a handicapped room from my 90 year old grandmother.  It was very spacious with plenty of room for her wheelchair in room and bathroom, also had walk-in shower.  Hotel staff was wonderful ** shout out to Lucy and Ethel!  Truly enjoyed our stay and would definitely recommend this hotel.More</t>
   </si>
   <si>
-    <t>Lannnnaaaaa</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r497163547-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -624,9 +603,6 @@
     <t>The staff was very accommodating and helpful. The hotel itself needs some updates and repairs. The pet fee is a bit high also, but overall I was satisfied with our stay. We really enjoyed the kitchenette. More</t>
   </si>
   <si>
-    <t>hilliardc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r497055528-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -645,9 +621,6 @@
     <t>Nice clean and good service. Beware of all the road construction going on around it. Other than that it was a nice place to stay. there is a lot of road construction going on at the north loop 820 and I-35 junction, but the hotel cannot do anything about that.More</t>
   </si>
   <si>
-    <t>G5124EHbradl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r491257957-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -672,9 +645,6 @@
     <t>My stay was short but in the future, when I have longer stays, I would select this hotel.  It has everything available for you stay away from home, and it's in a very convenient location.  My main reason for selecting this hotel the value for what you need. I don't need all the extras that other hotels offer, because you're directly or indirectly paying for those.  More</t>
   </si>
   <si>
-    <t>Briefcaseman2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r482938311-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -702,9 +672,6 @@
     <t>I have appreciated my stay at the Extended Stay America – Fossil Creek. The staff is friendly and especially so during weekly cleaning of room. The wife &amp; kids are taken over the amount of space in a double room. (myself included!!!!!). The staff is supportive, accommodating, professional and friendly. Breakfast is set out every morning in a timely manner. The free WI-Fi is perfect for multiple devices. I recommend this hotel for persons especially that need a pleasant place for a prolonged period. Again, the rooms are spacious and clean. Trish and her staff is some of the nicest people I have met.More</t>
   </si>
   <si>
-    <t>cgraphman</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r482740035-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -726,9 +693,6 @@
     <t>I have stayed at this Hotel for well over 20 nights usually at least 4 nights straight.  They staff is always attentive to my needs and always a clean room waiting for me.  I have stayed on all floors but I prefer the first floor.  The Manager does her best to hook me up with that request.  The only con would be internet service.  I have to sign on every 24 hour period.  Otherwise no problems.  I will continue to use this Hotel for my business travels.More</t>
   </si>
   <si>
-    <t>taneshapete</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r480294689-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -753,9 +717,6 @@
     <t>We love it here they took really good care of us!! Thank you amina and alyria.. Sorry if i spelled your names wrong.. We will be coming back soon. Hope you too ladies will be there with their greeting smiles.. More</t>
   </si>
   <si>
-    <t>Jorge C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r478319920-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -780,9 +741,6 @@
     <t>My wife and I enjoyed a one night stay kind of last minute. Our first time at an Extended Stay, and it surpassed our expectations. You could tell that the rooms were well kept. The grab and go breakfast hit the spot!More</t>
   </si>
   <si>
-    <t>ree l</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r477597656-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -807,9 +765,6 @@
     <t>This was the best extended stay we've ever visited. It is clean, spacious and cost efficient. The check in process was not lengthy and was also a wonderful experience. They have multiple upgrades. No carpet, which was a plus! Myron has a beautiful smile and was friendly, helpful and informative. His hospitality exceeded my expectations! This facility has all the essentials to meet anyone's needs and perks too. I'd recommend staying here and I would stay here again. Thank you for making my stay comfortable. They even allow pets!!More</t>
   </si>
   <si>
-    <t>Terrell B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r476753645-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -861,9 +816,6 @@
     <t>Trish, Alyria and Amira at the desk are outstanding.  Ihave stayed at this Hotel 3 times in the last month and was always greeted with a smile and a great attitude.  The Hotel is clean all rooms have refrigerator, stove, microwave, couch and desk.  So far internet has been fast enough for business.  I will keep booking this Hotel.More</t>
   </si>
   <si>
-    <t>Wanda A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r472514112-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -888,9 +840,6 @@
     <t>I will be staying here 2 weeks. So far the staff has been amazing, over-the-top!! I have never felt more at home than here. The staff makes you feel about like family here. This was my first time to stay her, but I will be staying here much more. More</t>
   </si>
   <si>
-    <t>samuel1710</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r471971145-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -912,9 +861,6 @@
     <t>Great customer service and very clean atmosphere will recommend my friends to come here at the time. The awesome hospitality by Ms. Amina was stunting keep up the good work. Close to food places and shopping.More</t>
   </si>
   <si>
-    <t>Tina A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r468083153-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -939,9 +885,6 @@
     <t>Amina, Alyria,Trish,Yeni,Myron,Jamal and Ray, are a excellent staff they made sure that our stay was awesome and comfortable and we would recommend that everyone should choose Extented Stay America. Our family love you all and god bless every one of you.More</t>
   </si>
   <si>
-    <t>sheilad62016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r456873576-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -969,9 +912,6 @@
     <t>We had the pleasure of staying at the Fossil Creek location. I must admit our room was extremely clean, and the beds were comfortable. If there is anything you need anytime of the day or night they provide with extreme courteousness. I have to thank Walter Ray Turner for outstanding service and going above and beyond to take care of our needs. Again this is an awesome place to stay. We will utilize them in the future.More</t>
   </si>
   <si>
-    <t>ontime398</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r448919211-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -993,9 +933,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>PhDreamer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r446252290-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1020,9 +957,6 @@
     <t>I had the opportunity of staying here for three weeks in December 2016. The renovated rooms and exceptional staff made for a really enjoyable and relaxed stay.I stayed in both the standard (okay) and deluxe (excellent) rooms. Both rooms have a full kitchen, equipped with a full sized refrigerator, microwave, stove and cookware etc. The rooms were very clean and modern, with good lighting and amenities. The deluxe room in particular, had the feeling of a nice studio apartment.Free wifi is provided and internet speeds were reasonable, at about 1mb. The deluxe room also was equipped with a large desk, comfortable sleeper sofa, 32" TV, dresser and large bathroom. The queen bed was particularly comfortable.Overall, these are things that should be expected from this class of hotel. What was unexpected however, was the level of service provided by the staff under the direction of the hotel manager Trish. All of these folks went "above and beyond" to make sure I was satisfied. They even worked out the best rate, without me asking!Overall, I would rate this hotel as the best value in northern Fort Worth.More</t>
   </si>
   <si>
-    <t>sonjia c</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r443210590-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1068,9 +1002,6 @@
     <t>The room was very spacious. The management and staff are very helpful (assist guest in any way possible) and friendly. Furthermore, having a kitchen to prepare meals is very convenient and cost efficient. Guests can relax and rejuvenate in the newly remodeled contemporary guest rooms. Extended Stay America - Fossil Creek has comfortable beds and sweet sleeper sofa that is custom-designed for a great night's sleep and excellent for sitting. Free high speed Internet access is available.More</t>
   </si>
   <si>
-    <t>saseechic</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r412042868-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1095,9 +1026,6 @@
     <t>The stay was perfect, area quiet, close to things, employees nice, rate was good for all you got, we got a better deal going thru a third party ie:hotel to go, than when I called extended stay. When I called the price was $10 more a night and they said that none of the stays had a pool, that was wrong,this one had a pool. Will definitely come backMore</t>
   </si>
   <si>
-    <t>vagabond023</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r371797238-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1125,9 +1053,6 @@
     <t>This hotel is in a great location, very convenient to everything and very well managed. The management and staff are very friendly and always willing to help, especially Yenni, she's very pleasant and very professional.The rooms are very well kept and spacious, and the full kitchen is great for making meals. It's a true home away from home place. I enjoy the grab and go breakfast, it has nice variety and fresh coffee.More</t>
   </si>
   <si>
-    <t>StarTX</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r363865324-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1144,9 +1069,6 @@
   </si>
   <si>
     <t>April 2016</t>
-  </si>
-  <si>
-    <t>Sandra m</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r355913296-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1169,9 +1091,6 @@
 Upon check-in I was initially given room 201, when I arrived at the room the door was propped open and the and the room was dirty. The bedding was askew and the floors were dirty. Additionally the entire hallway I walked through to get to the room reeked of cigarette smoke. The stairwells seem to be a place to store boxes  and dirty throughout. I walked down the dirty stairwell to return to the front desk and asked for a different room. They were very apologetic, changed my room and put me on the third floor as I had requested a different floor so I could avoid cigarette smoke. The manager also promised to investigate the smoking. Initially the new room, although not spotless was clean enough and the hallway smelled less of smoke than the 2nd floor. I left for a few hours and when...I stayed at this hotel for one night from 3/15 to 3/16 2016. I chose it because it was affordable, pet friendly, and a newly built non-smoking hotel according to the extended stay website. Given the price per night I was not expecting a 5 star or even upper 3 star experience. I was however,expecting a clean room, clean common areas and a non-smoking hotel. This hotel is also clearly not new, or if it is they used old linens, for a new hotel the towels are shabby and bed linens are as well. Upon check-in I was initially given room 201, when I arrived at the room the door was propped open and the and the room was dirty. The bedding was askew and the floors were dirty. Additionally the entire hallway I walked through to get to the room reeked of cigarette smoke. The stairwells seem to be a place to store boxes  and dirty throughout. I walked down the dirty stairwell to return to the front desk and asked for a different room. They were very apologetic, changed my room and put me on the third floor as I had requested a different floor so I could avoid cigarette smoke. The manager also promised to investigate the smoking. Initially the new room, although not spotless was clean enough and the hallway smelled less of smoke than the 2nd floor. I left for a few hours and when I returned I felt like I was walking through an entire smoking section or a smoke filled night club to get to my room. The entire hallway smelled of smoke and it also slowly started to smell in my room. I am very allergic to smoke and this is why I chose this hotel. This hotel is clearly not non-smoking or the policy is clearly not strictly or even somewhat enforced. If you are going to advertise hotel as non-smoking you need to enforce it because people will trust that promise and you could be making them ill. Although I paid a lot less for this hotel then I may have for others I would have preferred to pay more and not have had an allergy attack. This hotel stinks literally!More</t>
   </si>
   <si>
-    <t>ChuckL70</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r335446245-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1199,9 +1118,6 @@
     <t>Rented a room through Priceline.Com for a concert at Billy Bob's Christmas night and this hotel worked well. It was about 7-8 miles away but pretty easy to get to in spite of the road construction. Our room was nice, clean and quiet; all you can ask for.More</t>
   </si>
   <si>
-    <t>hrw1953</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r329164328-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1220,9 +1136,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Lighthousetravelok</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r327035870-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
   </si>
   <si>
@@ -1236,9 +1149,6 @@
   </si>
   <si>
     <t>Here is a great clean hotel that offers kitchens in their rooms. Where you can make a great home cooked meal &amp; save money rather going out &amp; spend a lot of money at restaurants. I felt like home while staying in the room, it felt like I was in a small apartment rather than a hotel room. Loved it.</t>
-  </si>
-  <si>
-    <t>momna_8</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55857-d109119-r309425471-Extended_Stay_America_Fort_Worth_Fossil_Creek-Fort_Worth_Texas.html</t>
@@ -1761,604 +1671,564 @@
       <c r="A2" t="n">
         <v>37184</v>
       </c>
-      <c r="B2" t="n">
-        <v>634</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
-        <v>51</v>
-      </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37184</v>
       </c>
-      <c r="B3" t="n">
-        <v>136217</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
       <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37184</v>
       </c>
-      <c r="B4" t="n">
-        <v>136218</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>73</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37184</v>
       </c>
-      <c r="B5" t="n">
-        <v>136219</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>83</v>
-      </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37184</v>
       </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37184</v>
       </c>
-      <c r="B7" t="n">
-        <v>136220</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37184</v>
       </c>
-      <c r="B8" t="n">
-        <v>136221</v>
-      </c>
-      <c r="C8" t="s">
-        <v>106</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>104</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
         <v>2</v>
       </c>
-      <c r="N8" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" t="s">
-        <v>112</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37184</v>
       </c>
-      <c r="B9" t="n">
-        <v>136222</v>
-      </c>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="O9" t="s">
-        <v>123</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37184</v>
       </c>
-      <c r="B10" t="n">
-        <v>9050</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
@@ -2367,7 +2237,7 @@
         <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2379,51 +2249,47 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37184</v>
       </c>
-      <c r="B11" t="n">
-        <v>136223</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
@@ -2432,7 +2298,7 @@
         <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2444,141 +2310,123 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="X11" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Y11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37184</v>
       </c>
-      <c r="B12" t="n">
-        <v>634</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="L12" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="X12" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="Y12" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37184</v>
       </c>
-      <c r="B13" t="n">
-        <v>136224</v>
-      </c>
-      <c r="C13" t="s">
-        <v>154</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="O13" t="s">
-        <v>102</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="n">
         <v>5</v>
       </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="n">
         <v>5</v>
       </c>
@@ -2590,60 +2438,56 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="X13" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37184</v>
       </c>
-      <c r="B14" t="n">
-        <v>136225</v>
-      </c>
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="J14" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="K14" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2665,60 +2509,56 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>37184</v>
       </c>
-      <c r="B15" t="n">
-        <v>136226</v>
-      </c>
-      <c r="C15" t="s">
-        <v>173</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="J15" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2727,7 +2567,7 @@
         <v>5</v>
       </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2740,67 +2580,69 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="X15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="Y15" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>37184</v>
       </c>
-      <c r="B16" t="n">
-        <v>136227</v>
-      </c>
-      <c r="C16" t="s">
-        <v>182</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="J16" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>102</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="n">
         <v>5</v>
       </c>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -2809,73 +2651,63 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="X16" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="Y16" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37184</v>
       </c>
-      <c r="B17" t="n">
-        <v>136228</v>
-      </c>
-      <c r="C17" t="s">
-        <v>192</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="J17" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="K17" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="O17" t="s">
-        <v>102</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2884,147 +2716,139 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="X17" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="Y17" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37184</v>
       </c>
-      <c r="B18" t="n">
-        <v>136229</v>
-      </c>
-      <c r="C18" t="s">
-        <v>202</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="J18" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O18" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="X18" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Y18" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37184</v>
       </c>
-      <c r="B19" t="n">
-        <v>136230</v>
-      </c>
-      <c r="C19" t="s">
-        <v>209</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="J19" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
@@ -3034,138 +2858,134 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="X19" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37184</v>
       </c>
-      <c r="B20" t="n">
-        <v>136231</v>
-      </c>
-      <c r="C20" t="s">
-        <v>218</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="O20" t="s">
-        <v>102</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="X20" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37184</v>
       </c>
-      <c r="B21" t="n">
-        <v>136232</v>
-      </c>
-      <c r="C21" t="s">
-        <v>228</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>5</v>
@@ -3174,122 +2994,124 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="X21" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37184</v>
       </c>
-      <c r="B22" t="n">
-        <v>136233</v>
-      </c>
-      <c r="C22" t="s">
-        <v>236</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="X22" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="Y22" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37184</v>
       </c>
-      <c r="B23" t="n">
-        <v>38101</v>
-      </c>
-      <c r="C23" t="s">
-        <v>245</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="J23" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="K23" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
+      <c r="N23" t="s">
+        <v>223</v>
+      </c>
+      <c r="O23" t="s">
+        <v>104</v>
+      </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
@@ -3300,61 +3122,53 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="X23" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="Y23" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37184</v>
       </c>
-      <c r="B24" t="n">
-        <v>136234</v>
-      </c>
-      <c r="C24" t="s">
-        <v>254</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
-      <c r="N24" t="s">
-        <v>234</v>
-      </c>
-      <c r="O24" t="s">
-        <v>53</v>
-      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
@@ -3365,131 +3179,117 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="X24" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="Y24" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37184</v>
       </c>
-      <c r="B25" t="n">
-        <v>16742</v>
-      </c>
-      <c r="C25" t="s">
-        <v>263</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="J25" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="K25" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="X25" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="Y25" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37184</v>
       </c>
-      <c r="B26" t="n">
-        <v>634</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="J26" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="K26" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3507,125 +3307,123 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="X26" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="Y26" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37184</v>
       </c>
-      <c r="B27" t="n">
-        <v>6469</v>
-      </c>
-      <c r="C27" t="s">
-        <v>281</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="X27" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="Y27" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>37184</v>
       </c>
-      <c r="B28" t="n">
-        <v>136235</v>
-      </c>
-      <c r="C28" t="s">
-        <v>290</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="J28" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="K28" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3637,60 +3435,56 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="X28" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="Y28" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37184</v>
       </c>
-      <c r="B29" t="n">
-        <v>34012</v>
-      </c>
-      <c r="C29" t="s">
-        <v>298</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
       <c r="I29" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="J29" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="O29" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3702,60 +3496,56 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="X29" t="s">
-        <v>305</v>
+        <v>216</v>
       </c>
       <c r="Y29" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37184</v>
       </c>
-      <c r="B30" t="n">
-        <v>136236</v>
-      </c>
-      <c r="C30" t="s">
-        <v>307</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
         <v>46</v>
       </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
       <c r="I30" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="J30" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="K30" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>313</v>
+        <v>182</v>
       </c>
       <c r="O30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3767,205 +3557,189 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="X30" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="Y30" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>37184</v>
       </c>
-      <c r="B31" t="n">
-        <v>136237</v>
-      </c>
-      <c r="C31" t="s">
-        <v>317</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
         <v>46</v>
       </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
       <c r="I31" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="J31" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="O31" t="s">
-        <v>324</v>
+        <v>104</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>3</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>295</v>
+      </c>
+      <c r="X31" t="s">
+        <v>296</v>
+      </c>
       <c r="Y31" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37184</v>
       </c>
-      <c r="B32" t="n">
-        <v>136238</v>
-      </c>
-      <c r="C32" t="s">
-        <v>325</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
         <v>46</v>
       </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
       <c r="I32" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="J32" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="K32" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="O32" t="s">
-        <v>123</v>
+        <v>304</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
       <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>331</v>
-      </c>
-      <c r="X32" t="s">
-        <v>332</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37184</v>
       </c>
-      <c r="B33" t="n">
-        <v>136239</v>
-      </c>
-      <c r="C33" t="s">
-        <v>334</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
         <v>46</v>
       </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
       <c r="I33" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="J33" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="K33" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s">
-        <v>339</v>
+        <v>309</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -3974,68 +3748,62 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="X33" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="Y33" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37184</v>
       </c>
-      <c r="B34" t="n">
-        <v>136230</v>
-      </c>
-      <c r="C34" t="s">
-        <v>218</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
         <v>46</v>
       </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
       <c r="I34" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="J34" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="K34" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="L34" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
         <v>5</v>
       </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -4045,269 +3813,259 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="X34" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="Y34" t="s">
-        <v>349</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37184</v>
       </c>
-      <c r="B35" t="n">
-        <v>136240</v>
-      </c>
-      <c r="C35" t="s">
-        <v>350</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
         <v>46</v>
       </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
       <c r="I35" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="J35" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="K35" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="L35" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="O35" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="X35" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="Y35" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37184</v>
       </c>
-      <c r="B36" t="n">
-        <v>136241</v>
-      </c>
-      <c r="C36" t="s">
-        <v>359</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
         <v>46</v>
       </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
       <c r="I36" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="J36" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="K36" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="L36" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
       <c r="X36" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="Y36" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37184</v>
       </c>
-      <c r="B37" t="n">
-        <v>136242</v>
-      </c>
-      <c r="C37" t="s">
-        <v>369</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
       <c r="I37" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="J37" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="K37" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>342</v>
+      </c>
+      <c r="X37" t="s">
+        <v>343</v>
+      </c>
       <c r="Y37" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>37184</v>
       </c>
-      <c r="B38" t="n">
-        <v>136243</v>
-      </c>
-      <c r="C38" t="s">
-        <v>376</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
       <c r="I38" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="J38" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="K38" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="L38" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="O38" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4315,202 +4073,188 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>37184</v>
       </c>
-      <c r="B39" t="n">
-        <v>136244</v>
-      </c>
-      <c r="C39" t="s">
-        <v>383</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
         <v>46</v>
       </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
       <c r="I39" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="J39" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="K39" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="L39" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="O39" t="s">
-        <v>112</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>390</v>
-      </c>
-      <c r="X39" t="s">
-        <v>391</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>392</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>37184</v>
       </c>
-      <c r="B40" t="n">
-        <v>48414</v>
-      </c>
-      <c r="C40" t="s">
-        <v>393</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>394</v>
+        <v>357</v>
       </c>
       <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
         <v>46</v>
       </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
       <c r="I40" t="s">
-        <v>395</v>
+        <v>358</v>
       </c>
       <c r="J40" t="s">
-        <v>396</v>
+        <v>359</v>
       </c>
       <c r="K40" t="s">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="L40" t="s">
-        <v>398</v>
+        <v>361</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>399</v>
+        <v>362</v>
       </c>
       <c r="O40" t="s">
-        <v>102</v>
-      </c>
-      <c r="P40" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>363</v>
+      </c>
+      <c r="X40" t="s">
+        <v>364</v>
+      </c>
       <c r="Y40" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>37184</v>
       </c>
-      <c r="B41" t="n">
-        <v>136245</v>
-      </c>
-      <c r="C41" t="s">
-        <v>400</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>401</v>
+        <v>366</v>
       </c>
       <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
         <v>46</v>
       </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
       <c r="I41" t="s">
-        <v>402</v>
+        <v>367</v>
       </c>
       <c r="J41" t="s">
-        <v>403</v>
+        <v>368</v>
       </c>
       <c r="K41" t="s">
-        <v>404</v>
+        <v>369</v>
       </c>
       <c r="L41" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>399</v>
+        <v>371</v>
       </c>
       <c r="O41" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="P41" t="s"/>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4518,68 +4262,127 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37184</v>
       </c>
-      <c r="B42" t="n">
-        <v>136246</v>
-      </c>
-      <c r="C42" t="s">
-        <v>406</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
         <v>46</v>
       </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
       <c r="I42" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="J42" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="O42" t="s">
         <v>123</v>
       </c>
       <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
       <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>411</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37184</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>377</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>378</v>
+      </c>
+      <c r="J43" t="s">
+        <v>379</v>
+      </c>
+      <c r="K43" t="s">
+        <v>380</v>
+      </c>
+      <c r="L43" t="s">
+        <v>381</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>382</v>
+      </c>
+      <c r="O43" t="s">
+        <v>123</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
